--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="JS XLSX"/>
   <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="false" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="hello" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
@@ -63,16 +63,16 @@
   <cellStyleXfs/>
   <cellXfs count="4">
     <xf>
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="true" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="2" borderId="1">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="2" borderId="1">
+      <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="true" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <numFmts/>
@@ -401,18 +401,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -422,9 +422,9 @@
   </mergeCells>
   <dimension ref="A1:C2"/>
   <cols>
-    <col min="1" max="1" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="false" width="9.5" customWidth="0" collapsed="false" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">

--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -62,16 +62,16 @@
   </borders>
   <cellStyleXfs/>
   <cellXfs count="4">
-    <xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="2" borderId="1">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="1" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -60,7 +60,6 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs/>
   <cellXfs count="4">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>

--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -6,10 +6,10 @@
   <bookViews>
     <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="hello" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -74,7 +74,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <numFmts/>
 </styleSheet>
 </file>
 
@@ -403,23 +402,13 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
-  <dimension ref="A1:C2"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
     <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
@@ -439,5 +428,15 @@
       <c r="C2" t="s" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -46,13 +46,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -60,17 +54,14 @@
       <bottom style="none"/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -410,22 +401,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="3" max="3" hidden="0" width="9.5" customWidth="0" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="0">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3"/>
-      <c r="C1" t="s" s="3"/>
+      <c r="B1" t="s" s="2"/>
+      <c r="C1" t="s" s="2"/>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="3"/>
-      <c r="B2" t="s" s="3"/>
-      <c r="C2" t="s" s="3"/>
+      <c r="A2" t="s" s="2"/>
+      <c r="B2" t="s" s="2"/>
+      <c r="C2" t="s" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/expect/simple.xlsx
+++ b/test/expect/simple.xlsx
@@ -46,22 +46,112 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="ff7e6a54"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="ff7e6a54"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="ff7e6a54"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="ff7e6a54"/>
+      </right>
+      <top style="thin">
+        <color rgb="ff7e6a54"/>
+      </top>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="ff7e6a54"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="ff7e6a54"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="ff7e6a54"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="ff7e6a54"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="ff7e6a54"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="ff7e6a54"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="ff7e6a54"/>
+      </bottom>
+    </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -393,7 +483,7 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -411,16 +501,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2"/>
-      <c r="C1" t="s" s="2"/>
+      <c r="C1" t="s" s="3"/>
     </row>
     <row r="2" outlineLevel="0">
-      <c r="A2" t="s" s="2"/>
-      <c r="B2" t="s" s="2"/>
-      <c r="C2" t="s" s="2"/>
+      <c r="A2" t="s" s="4"/>
+      <c r="B2" t="s" s="0"/>
+      <c r="C2" t="s" s="5"/>
+    </row>
+    <row r="3" outlineLevel="0">
+      <c r="A3" t="s" s="6"/>
+      <c r="B3" t="s" s="7"/>
+      <c r="C3" t="s" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A1:C3"/>
   </mergeCells>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
